--- a/semestre.xlsx
+++ b/semestre.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leocoquerel/Desktop/PROG RT/R107/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leocoquerel/Desktop/PROG RT/R107/Prog_Moyenne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA41A60-20CB-154C-9FB4-CD80299F6FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1DBE8-7742-FC4F-98C9-FF5ECC3EB7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="19560" activeTab="1" xr2:uid="{163C1373-1EE1-C948-B4C4-BF5C1FC992FF}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="19560" activeTab="2" xr2:uid="{163C1373-1EE1-C948-B4C4-BF5C1FC992FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="page2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>UE1</t>
   </si>
@@ -118,6 +119,18 @@
   </si>
   <si>
     <t>Semestre 1</t>
+  </si>
+  <si>
+    <t>Semestre 2</t>
+  </si>
+  <si>
+    <t>Semestre 3</t>
+  </si>
+  <si>
+    <t>UE4</t>
+  </si>
+  <si>
+    <t>UE5</t>
   </si>
 </sst>
 </file>
@@ -519,7 +532,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,15 +1034,676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F044D65-A39E-FC4F-8FAE-8F317B8C891F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D047FB83-8606-9E4C-8E07-15C4B00E7463}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820E538-236C-E443-B742-BCCD07DB5B74}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>